--- a/data/Subregions.xlsx
+++ b/data/Subregions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\EUFMD\PPR Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C2C6F1-787D-4A46-AF3B-F66A0943C998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46EE838-7077-4AB8-8C67-ECFFB2A84D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5759" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5762" uniqueCount="922">
   <si>
     <t>Country</t>
   </si>
@@ -2753,6 +2753,39 @@
   </si>
   <si>
     <t>Grand'Anse Praslin</t>
+  </si>
+  <si>
+    <t>Zanzibar North</t>
+  </si>
+  <si>
+    <t>Zanzibar Central/South</t>
+  </si>
+  <si>
+    <t>Zanzibar Urban/West</t>
+  </si>
+  <si>
+    <t>Katavi</t>
+  </si>
+  <si>
+    <t>(to fix that rukwa is containing katavi but shapefile does not)</t>
+  </si>
+  <si>
+    <t>Njombe</t>
+  </si>
+  <si>
+    <t>(to fix that njombe is within Irinag and Mbeya)</t>
+  </si>
+  <si>
+    <t>(this was centre fixing for mappin gissues</t>
+  </si>
+  <si>
+    <t>Bougouriba</t>
+  </si>
+  <si>
+    <t>Ioba</t>
+  </si>
+  <si>
+    <t>Noumbiel</t>
   </si>
 </sst>
 </file>
@@ -3120,13 +3153,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1438"/>
+  <dimension ref="A1:L1438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1167" workbookViewId="0">
-      <selection activeCell="N1186" sqref="N1186"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -5928,7 +5966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -5963,7 +6001,7 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -5998,7 +6036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -6033,7 +6071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -6068,7 +6106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -6103,7 +6141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -6138,7 +6176,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -6173,7 +6211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -6208,7 +6246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -6243,7 +6281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -6278,7 +6316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -6313,7 +6351,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -6342,13 +6380,16 @@
         <v>69818</v>
       </c>
       <c r="J92" t="s">
-        <v>154</v>
+        <v>919</v>
       </c>
       <c r="K92">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -6377,13 +6418,13 @@
         <v>376567</v>
       </c>
       <c r="J93" t="s">
-        <v>154</v>
+        <v>920</v>
       </c>
       <c r="K93">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -6412,13 +6453,13 @@
         <v>524311</v>
       </c>
       <c r="J94" t="s">
-        <v>154</v>
+        <v>921</v>
       </c>
       <c r="K94">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -6447,13 +6488,13 @@
         <v>279723</v>
       </c>
       <c r="J95" t="s">
-        <v>154</v>
+        <v>841</v>
       </c>
       <c r="K95">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -26648,7 +26689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>60</v>
       </c>
@@ -26683,7 +26724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>60</v>
       </c>
@@ -26718,7 +26759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>60</v>
       </c>
@@ -26753,7 +26794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>60</v>
       </c>
@@ -26788,7 +26829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>60</v>
       </c>
@@ -26823,7 +26864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>60</v>
       </c>
@@ -26858,7 +26899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>60</v>
       </c>
@@ -26893,7 +26934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>60</v>
       </c>
@@ -26928,7 +26969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>60</v>
       </c>
@@ -26963,7 +27004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>60</v>
       </c>
@@ -26998,7 +27039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>60</v>
       </c>
@@ -27027,13 +27068,16 @@
         <v>1687</v>
       </c>
       <c r="J683" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="K683">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L683" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>60</v>
       </c>
@@ -27062,13 +27106,16 @@
         <v>7469</v>
       </c>
       <c r="J684" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="K684">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L684" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>60</v>
       </c>
@@ -27103,7 +27150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>60</v>
       </c>
@@ -27138,7 +27185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>60</v>
       </c>
@@ -27173,7 +27220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>60</v>
       </c>
@@ -27342,7 +27389,7 @@
         <v>723</v>
       </c>
       <c r="J692" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="K692">
         <v>85.5</v>
@@ -27377,7 +27424,7 @@
         <v>1446</v>
       </c>
       <c r="J693" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="K693">
         <v>85.5</v>
@@ -27412,7 +27459,7 @@
         <v>482</v>
       </c>
       <c r="J694" t="s">
-        <v>353</v>
+        <v>913</v>
       </c>
       <c r="K694">
         <v>85.5</v>

--- a/data/Subregions.xlsx
+++ b/data/Subregions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\EUFMD\PPR Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46EE838-7077-4AB8-8C67-ECFFB2A84D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511602D-F93C-40E3-B25E-8D76C37DB02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="20532" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5762" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5763" uniqueCount="929">
   <si>
     <t>Country</t>
   </si>
@@ -2786,6 +2786,27 @@
   </si>
   <si>
     <t>Noumbiel</t>
+  </si>
+  <si>
+    <t>changed to Atakera (real name Atacora )</t>
+  </si>
+  <si>
+    <t>Atakera</t>
+  </si>
+  <si>
+    <t>South Kordofan</t>
+  </si>
+  <si>
+    <t>South Darfur</t>
+  </si>
+  <si>
+    <t>West Darfur</t>
+  </si>
+  <si>
+    <t>North Darfur</t>
+  </si>
+  <si>
+    <t>North Kordofan</t>
   </si>
 </sst>
 </file>
@@ -3155,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5406,7 +5427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -5441,7 +5462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -5476,7 +5497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -5511,7 +5532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -5546,12 +5567,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>923</v>
       </c>
       <c r="C69" t="s">
         <v>756</v>
@@ -5580,8 +5601,11 @@
       <c r="K69">
         <v>85.714285714285722</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -5616,7 +5640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -5651,7 +5675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5686,7 +5710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5721,7 +5745,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5756,7 +5780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5791,7 +5815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5826,7 +5850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5861,7 +5885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5896,7 +5920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5931,7 +5955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -22494,7 +22518,7 @@
         <v>55</v>
       </c>
       <c r="B553" t="s">
-        <v>591</v>
+        <v>927</v>
       </c>
       <c r="C553" t="s">
         <v>756</v>
@@ -22529,7 +22553,7 @@
         <v>55</v>
       </c>
       <c r="B554" t="s">
-        <v>592</v>
+        <v>928</v>
       </c>
       <c r="C554" t="s">
         <v>756</v>
@@ -22634,7 +22658,7 @@
         <v>55</v>
       </c>
       <c r="B557" t="s">
-        <v>595</v>
+        <v>925</v>
       </c>
       <c r="C557" t="s">
         <v>756</v>
@@ -22669,7 +22693,7 @@
         <v>55</v>
       </c>
       <c r="B558" t="s">
-        <v>596</v>
+        <v>924</v>
       </c>
       <c r="C558" t="s">
         <v>756</v>
@@ -22704,7 +22728,7 @@
         <v>55</v>
       </c>
       <c r="B559" t="s">
-        <v>597</v>
+        <v>926</v>
       </c>
       <c r="C559" t="s">
         <v>756</v>
